--- a/pyhton/nuevo_corpus.xlsx
+++ b/pyhton/nuevo_corpus.xlsx
@@ -7693,8 +7693,8 @@
   <dimension ref="A1:J2094"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="1" topLeftCell="A1649" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1649" sqref="F1649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40699,7 +40699,7 @@
         <v>17</v>
       </c>
       <c r="E1649" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="F1649" t="s">
         <v>1678</v>
